--- a/data/DHCD Cash Proffer Reports/FY22-Tables.xlsx
+++ b/data/DHCD Cash Proffer Reports/FY22-Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chv7bg\Documents\Research\bargaining-upzone\data\DHCD Cash Proffer Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C744E794-6471-489B-B4F1-A58663B99588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857050F7-CA7A-4CD9-898D-90BA1199C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6BCDA259-AFC2-4350-BBEE-F455FF1AAE88}"/>
+    <workbookView xWindow="690" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{6BCDA259-AFC2-4350-BBEE-F455FF1AAE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Table008 (Page 13)" sheetId="2" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Table008 (Page 13)'!$A$1:$I$47</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Table010 (Page 14)'!$A$1:$I$47</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Table012 (Page 15)'!$A$1:$J$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Table008 (Page 13)'!$A$1:$H$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Table010 (Page 14)'!$A$1:$H$47</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Table012 (Page 15)'!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="284">
   <si>
     <t>Column1</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>Highland</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>Accomack</t>
@@ -953,19 +950,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1054,17 +1039,19 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{C78973BC-4479-4BE0-A8EE-483F6E96D6FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
       <queryTableField id="8" name="Column8" tableColumnId="8"/>
       <queryTableField id="9" name="Column9" tableColumnId="9"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column6"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -1072,17 +1059,19 @@
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{3B2E2AD6-67E8-49DC-ADCA-03F041077470}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
       <queryTableField id="7" name="Column7" tableColumnId="7"/>
       <queryTableField id="8" name="Column8" tableColumnId="8"/>
       <queryTableField id="9" name="Column9" tableColumnId="9"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Column6"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -1090,69 +1079,67 @@
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{5D9A39DF-C27E-4D94-9064-8375FE8FC5D5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
-    <queryTableFields count="10">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
       <queryTableField id="4" name="Column4" tableColumnId="4"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
       <queryTableField id="8" name="Column8" tableColumnId="8"/>
       <queryTableField id="9" name="Column9" tableColumnId="9"/>
       <queryTableField id="10" name="Column10" tableColumnId="10"/>
     </queryTableFields>
+    <queryTableDeletedFields count="2">
+      <deletedField name="Column7"/>
+      <deletedField name="Column2"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C9935C-139F-4F47-87F1-5DCE1C416AAD}" name="Table008__Page_13" displayName="Table008__Page_13" ref="A1:I47" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I47" xr:uid="{82C9935C-139F-4F47-87F1-5DCE1C416AAD}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{3887F3D2-3A3D-450A-AF11-7ED9929684BB}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7E3CE273-9467-4350-BBB2-04FFFA30AA39}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{37289A95-D8EA-4F24-AC07-199F6D8ED707}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{983CFCC9-26D1-495E-B56D-E681A8BFA353}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{6B7E4A11-9C8F-4238-81BC-B035DC4071C0}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{319C881E-DD4B-41D8-A29B-7D181CB19AB8}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{78B897BD-DCF3-4E20-B0EF-94911416E9D7}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{35C5F276-0CE8-4F49-A02A-A7F58C502DA1}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{55CBD866-08FC-49F7-BEEA-1A0C3F5400C8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C9935C-139F-4F47-87F1-5DCE1C416AAD}" name="Table008__Page_13" displayName="Table008__Page_13" ref="A1:H47" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H47" xr:uid="{82C9935C-139F-4F47-87F1-5DCE1C416AAD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3887F3D2-3A3D-450A-AF11-7ED9929684BB}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7E3CE273-9467-4350-BBB2-04FFFA30AA39}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{37289A95-D8EA-4F24-AC07-199F6D8ED707}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{983CFCC9-26D1-495E-B56D-E681A8BFA353}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{6B7E4A11-9C8F-4238-81BC-B035DC4071C0}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{78B897BD-DCF3-4E20-B0EF-94911416E9D7}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{35C5F276-0CE8-4F49-A02A-A7F58C502DA1}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{55CBD866-08FC-49F7-BEEA-1A0C3F5400C8}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1942669E-8BAE-44DC-A1EE-0FB8F83E1D6A}" name="Table010__Page_14" displayName="Table010__Page_14" ref="A1:I47" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I47" xr:uid="{1942669E-8BAE-44DC-A1EE-0FB8F83E1D6A}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{60D178D6-C977-489E-8AC6-015364FB552A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A0CF0373-9F40-4284-ABF7-22C9493EFD70}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E271755B-5829-434C-ABC9-7C35794EF312}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{2B911B36-5AA3-4553-A514-CC653AA827DB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D7541927-B7C1-4C67-9582-0E5C988BF388}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{8C7766D6-769D-4FBD-B4AF-E5107C8572AE}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{873AC614-4A70-4E56-8626-EF7C2AE17FD9}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9DC9EF3B-97D3-47D2-BF72-5142862AA0BF}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CDE52EE4-5512-41E2-A952-2B5AD73AA204}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1942669E-8BAE-44DC-A1EE-0FB8F83E1D6A}" name="Table010__Page_14" displayName="Table010__Page_14" ref="A1:H47" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H47" xr:uid="{1942669E-8BAE-44DC-A1EE-0FB8F83E1D6A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{60D178D6-C977-489E-8AC6-015364FB552A}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A0CF0373-9F40-4284-ABF7-22C9493EFD70}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E271755B-5829-434C-ABC9-7C35794EF312}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{2B911B36-5AA3-4553-A514-CC653AA827DB}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D7541927-B7C1-4C67-9582-0E5C988BF388}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{873AC614-4A70-4E56-8626-EF7C2AE17FD9}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9DC9EF3B-97D3-47D2-BF72-5142862AA0BF}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{CDE52EE4-5512-41E2-A952-2B5AD73AA204}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F32D74B9-3864-4CEF-882B-A45CDC8727A2}" name="Table012__Page_15" displayName="Table012__Page_15" ref="A1:J47" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J47" xr:uid="{F32D74B9-3864-4CEF-882B-A45CDC8727A2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0F769525-31AA-4AA9-8132-3352614451A9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{536FAA53-A780-4170-8F4D-1541F1F2E752}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D0559AAE-E7BF-43B3-A2A0-B60D968C8D21}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{69BC26C9-4FAA-4215-ABF0-D6200ED596F1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{93118869-27B5-466B-B972-36111030F279}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{69494691-6D31-4C04-850C-8875ADC08706}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{28FF3565-B94B-4BCA-A0B4-A527EBE63E9D}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F32D74B9-3864-4CEF-882B-A45CDC8727A2}" name="Table012__Page_15" displayName="Table012__Page_15" ref="A1:H47" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H47" xr:uid="{F32D74B9-3864-4CEF-882B-A45CDC8727A2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0F769525-31AA-4AA9-8132-3352614451A9}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D0559AAE-E7BF-43B3-A2A0-B60D968C8D21}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{69BC26C9-4FAA-4215-ABF0-D6200ED596F1}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{93118869-27B5-466B-B972-36111030F279}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{69494691-6D31-4C04-850C-8875ADC08706}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{56CF72A3-E53B-43E1-AF84-2A8DD810BC2D}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{E7E502FD-0058-47CC-9ACE-F9D3052839DE}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{FB196726-C406-4B39-87C7-FB0DFC45897C}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="0"/>
@@ -1458,19 +1445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BC86FB-52B6-4CFA-8260-C52988AA8E34}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,19 +1476,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1515,18 +1501,17 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1542,18 +1527,17 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,18 +1551,17 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1592,18 +1575,17 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,16 +1601,15 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,18 +1625,17 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1671,14 +1651,13 @@
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1690,16 +1669,15 @@
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1711,14 +1689,13 @@
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1735,9 +1712,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1753,18 +1729,17 @@
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -1780,16 +1755,15 @@
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1805,18 +1779,17 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1832,14 +1805,13 @@
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1851,18 +1823,17 @@
       <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -1878,16 +1849,15 @@
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1903,18 +1873,17 @@
       <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -1930,18 +1899,17 @@
       <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1955,16 +1923,15 @@
       <c r="E20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>55</v>
       </c>
@@ -1980,18 +1947,17 @@
       <c r="E21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -2007,18 +1973,17 @@
       <c r="E22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -2037,9 +2002,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -2049,16 +2013,15 @@
       <c r="E24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -2074,18 +2037,17 @@
       <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -2101,18 +2063,17 @@
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2122,18 +2083,17 @@
       <c r="E27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -2149,16 +2109,15 @@
       <c r="E28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -2174,18 +2133,17 @@
       <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2201,16 +2159,15 @@
       <c r="E30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2226,18 +2183,17 @@
       <c r="E31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
@@ -2253,14 +2209,13 @@
       <c r="E32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -2274,18 +2229,17 @@
       <c r="E33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -2299,18 +2253,17 @@
       <c r="E34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -2326,14 +2279,13 @@
       <c r="E35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2349,18 +2301,17 @@
       <c r="E36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -2376,16 +2327,15 @@
       <c r="E37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2401,14 +2351,13 @@
       <c r="E38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -2424,18 +2373,17 @@
       <c r="E39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
@@ -2451,18 +2399,17 @@
       <c r="E40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2470,14 +2417,13 @@
       <c r="E41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>96</v>
       </c>
@@ -2493,70 +2439,65 @@
       <c r="E42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>26</v>
@@ -2566,22 +2507,21 @@
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>17</v>
@@ -2591,22 +2531,21 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>17</v>
@@ -2616,16 +2555,15 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2639,19 +2577,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4622837B-BE82-445C-B825-BE6E5E9EB292}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2668,19 +2608,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2694,22 +2631,21 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2719,20 +2655,19 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -2740,20 +2675,17 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -2765,47 +2697,41 @@
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>17</v>
@@ -2813,45 +2739,39 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -2862,21 +2782,18 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -2884,22 +2801,21 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -2911,122 +2827,115 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -3034,22 +2943,19 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
@@ -3059,72 +2965,65 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -3132,24 +3031,21 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -3159,49 +3055,43 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>17</v>
@@ -3211,49 +3101,43 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
@@ -3265,22 +3149,21 @@
         <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -3290,45 +3173,41 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -3340,20 +3219,17 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,19 +3244,16 @@
         <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>17</v>
@@ -3390,47 +3263,41 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>17</v>
@@ -3438,66 +3305,57 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>26</v>
@@ -3505,20 +3363,17 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -3528,97 +3383,85 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>17</v>
@@ -3628,72 +3471,65 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>17</v>
@@ -3703,70 +3539,63 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="G44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>17</v>
@@ -3776,39 +3605,33 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3820,246 +3643,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9653FF46-6E41-43C2-865D-766E1DD6D1EA}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4067,1073 +3852,855 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="H15" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="F36" s="1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="F43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
